--- a/96_仕様書/IS_仕様書_プロト版.xlsx
+++ b/96_仕様書/IS_仕様書_プロト版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\プレゼン資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\teamA_20231102\96_仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B6DE91E-5BB7-4688-872C-D8DD5041056A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74F34D1-F6FE-4B11-B579-BB8E72309CB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8388" windowHeight="5460" activeTab="1" xr2:uid="{3E0FEE04-B691-4759-9283-3C8E8A949D3A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8388" windowHeight="5460" firstSheet="1" activeTab="8" xr2:uid="{3E0FEE04-B691-4759-9283-3C8E8A949D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="ざっくり概要" sheetId="1" r:id="rId1"/>
@@ -511,13 +511,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -797,6 +797,56 @@
         <a:xfrm>
           <a:off x="1348740" y="426720"/>
           <a:ext cx="3901440" cy="4389120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>449582</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BD1E699-342D-4A39-B4F5-B0BA40EEBF00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5692140" y="205740"/>
+          <a:ext cx="6827522" cy="3840480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1119,18 +1169,18 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
@@ -1176,14 +1226,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093D19E6-7D20-4C1C-AC01-765E421BCFF8}">
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1432,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831339F7-28A2-4724-8E2A-C604A89D1ACB}">
   <dimension ref="C24:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/96_仕様書/IS_仕様書_プロト版.xlsx
+++ b/96_仕様書/IS_仕様書_プロト版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\teamA_20231102\96_仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74F34D1-F6FE-4B11-B579-BB8E72309CB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE19DE7-F20F-49A1-9D8D-C6072DB900DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8388" windowHeight="5460" firstSheet="1" activeTab="8" xr2:uid="{3E0FEE04-B691-4759-9283-3C8E8A949D3A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8388" windowHeight="5460" firstSheet="1" activeTab="5" xr2:uid="{3E0FEE04-B691-4759-9283-3C8E8A949D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="ざっくり概要" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -434,6 +434,41 @@
     </rPh>
     <rPh sb="38" eb="40">
       <t>ジュウブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージにあるオブジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木やひびの入った岩、ツボや脆い壁などの破壊可能なオブジェクトと、破壊不可能の硬質なオブジェクトに二分</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モロ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ハカイカノウ</t>
+    </rPh>
+    <rPh sb="32" eb="37">
+      <t>ハカイフカノウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウシツ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ニブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1384,10 +1419,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030D9E29-6C6D-4305-9B08-E5B7A9968B58}">
-  <dimension ref="B3:B16"/>
+  <dimension ref="B3:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L17:L18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1400,6 +1435,16 @@
     <row r="16" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1482,7 +1527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831339F7-28A2-4724-8E2A-C604A89D1ACB}">
   <dimension ref="C24:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>

--- a/96_仕様書/IS_仕様書_プロト版.xlsx
+++ b/96_仕様書/IS_仕様書_プロト版.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\teamA_20231102\96_仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE19DE7-F20F-49A1-9D8D-C6072DB900DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51AA3E9-9B4E-43F0-9FC9-BF366E4088BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8388" windowHeight="5460" firstSheet="1" activeTab="5" xr2:uid="{3E0FEE04-B691-4759-9283-3C8E8A949D3A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8388" windowHeight="5460" firstSheet="1" activeTab="6" xr2:uid="{3E0FEE04-B691-4759-9283-3C8E8A949D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="ざっくり概要" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="タイトル画面" sheetId="3" r:id="rId4"/>
     <sheet name="プレイヤー選択画面" sheetId="4" r:id="rId5"/>
     <sheet name="ゲームパート" sheetId="5" r:id="rId6"/>
-    <sheet name="リザルト" sheetId="6" r:id="rId7"/>
-    <sheet name="操作" sheetId="8" r:id="rId8"/>
-    <sheet name="モーニングスターについて" sheetId="7" r:id="rId9"/>
+    <sheet name="強化案" sheetId="10" r:id="rId7"/>
+    <sheet name="リザルト" sheetId="6" r:id="rId8"/>
+    <sheet name="操作" sheetId="8" r:id="rId9"/>
+    <sheet name="モーニングスターについて" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -469,6 +470,84 @@
     </rPh>
     <rPh sb="48" eb="50">
       <t>ニブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃えて炎の軌跡を残す</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キセキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逆方向に飛ぶ二個目の鉄球</t>
+    <rPh sb="0" eb="1">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニコメ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テッキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>障害物貫通</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重くてデカい鉄球</t>
+    <rPh sb="0" eb="1">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テッキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長い鎖</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クサリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵が鉄球にくっつく拘束</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テッキュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウソク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1257,6 +1336,38 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831339F7-28A2-4724-8E2A-C604A89D1ACB}">
+  <dimension ref="C24:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093D19E6-7D20-4C1C-AC01-765E421BCFF8}">
   <dimension ref="B2:B4"/>
@@ -1421,7 +1532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030D9E29-6C6D-4305-9B08-E5B7A9968B58}">
   <dimension ref="B3:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -1456,6 +1567,53 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F692F7-AF26-4685-8C4B-BBD9AB2ECDF1}">
+  <dimension ref="B2:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE87584-B1A8-4D5D-8D64-3BE556E7A351}">
   <dimension ref="C2:C20"/>
   <sheetViews>
@@ -1482,7 +1640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2E4149-FCA9-497C-9924-A0098384D843}">
   <dimension ref="B3:B7"/>
   <sheetViews>
@@ -1521,36 +1679,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831339F7-28A2-4724-8E2A-C604A89D1ACB}">
-  <dimension ref="C24:C26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>